--- a/data/horarios-de-nivelacion-procesados.xlsx
+++ b/data/horarios-de-nivelacion-procesados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722EC090-536E-4BEB-8393-3C4025F56F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7259707-9292-43B3-95CB-D443EBE7F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="125">
   <si>
     <t>ciclo</t>
   </si>
@@ -366,6 +366,51 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>111449</t>
+  </si>
+  <si>
+    <t>112449</t>
+  </si>
+  <si>
+    <t>113449</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD FINANCIERA I</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>08627589</t>
+  </si>
+  <si>
+    <t>VIZCARRA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>LUIS ARTURO</t>
+  </si>
+  <si>
+    <t>112936</t>
+  </si>
+  <si>
+    <t>TRIBUTACIÓN SECTORIAL</t>
+  </si>
+  <si>
+    <t>15766290</t>
+  </si>
+  <si>
+    <t>CABANILLAS</t>
+  </si>
+  <si>
+    <t>LEIVA</t>
+  </si>
+  <si>
+    <t>GERARDO MANUEL</t>
   </si>
 </sst>
 </file>
@@ -381,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +469,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -437,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -452,38 +509,15 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -567,6 +601,33 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -621,26 +682,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q29" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:Q29" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q34" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:Q34" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{0A177087-4C15-4674-A4A9-7D9BD880913A}" name="ciclo" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{8DF6EEB5-31DE-43FB-8CC5-CF192B52A0D0}" name="escuela" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{DC02F60A-44EF-47D9-9A7F-B3E1CA61A642}" name="codigo_de_asignatura" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{B71DDB69-AE46-4436-B6C5-F2CD39E5292A}" name="asignatura" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{590BAEFF-0B67-4594-823B-AE08D17296DB}" name="seccion" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F6B66EB0-78EB-4D17-A067-8F2911B83047}" name="aula" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{96B8DD83-FBFF-4E7C-B87A-48CC12E9F093}" name="identificacion" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{D7245376-2BA6-4ED9-8321-CDB2B444C8FF}" name="apellido_paterno" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{6ACE9626-67E6-4B86-9530-9E31CD27DAA1}" name="apellido_materno" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{E1A6E707-318F-498E-91DE-28092768944F}" name="nombres" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{42257497-4784-4052-AE5E-752F5754F2B7}" name="dia_de_la_semana" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{1C1E8ED0-A369-4E6E-924A-01E17E52DF7E}" name="hora_de_inicio" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{7A176AB4-BEAC-424F-9CBE-E83BABB9CDF6}" name="hora_de_finalizacion" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{D7694AAF-4FDD-4329-8ABE-54A5A01419C2}" name="rectificacion" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{56E61BBD-1796-4184-A81C-0409C8AE70D5}" name="codigo_de_asignatura_de_referencia" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{E090AD17-5323-4565-B2AC-6FBC0C77204C}" name="seccion_de_referencia" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{113F4936-7CC9-4486-9ADC-AD95CEC5501C}" name="aula_de_referencia" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{590BAEFF-0B67-4594-823B-AE08D17296DB}" name="seccion" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{F6B66EB0-78EB-4D17-A067-8F2911B83047}" name="aula" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{96B8DD83-FBFF-4E7C-B87A-48CC12E9F093}" name="identificacion" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{D7245376-2BA6-4ED9-8321-CDB2B444C8FF}" name="apellido_paterno" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{6ACE9626-67E6-4B86-9530-9E31CD27DAA1}" name="apellido_materno" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{E1A6E707-318F-498E-91DE-28092768944F}" name="nombres" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{42257497-4784-4052-AE5E-752F5754F2B7}" name="dia_de_la_semana" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{1C1E8ED0-A369-4E6E-924A-01E17E52DF7E}" name="hora_de_inicio" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7A176AB4-BEAC-424F-9CBE-E83BABB9CDF6}" name="hora_de_finalizacion" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{D7694AAF-4FDD-4329-8ABE-54A5A01419C2}" name="rectificacion" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{56E61BBD-1796-4184-A81C-0409C8AE70D5}" name="codigo_de_asignatura_de_referencia" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{E090AD17-5323-4565-B2AC-6FBC0C77204C}" name="seccion_de_referencia" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{113F4936-7CC9-4486-9ADC-AD95CEC5501C}" name="aula_de_referencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -963,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1746F96C-94FA-48F7-B6FA-3EEFCDB601C7}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1895,7 @@
         <v>57</v>
       </c>
       <c r="N16" s="2" t="b">
-        <f t="shared" ref="N16:N29" si="9">NOT(ISBLANK(O16))</f>
+        <f t="shared" ref="N16:N31" si="9">NOT(ISBLANK(O16))</f>
         <v>1</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -2521,6 +2582,258 @@
       <c r="Q29" s="11">
         <v>405</v>
       </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="14" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>4</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="14" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="14" t="b">
+        <f t="shared" ref="N32" si="10">NOT(ISBLANK(O32))</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>4</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="14" t="b">
+        <f t="shared" ref="N33:N34" si="11">NOT(ISBLANK(O33))</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>9</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" s="16" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/horarios-de-nivelacion-procesados.xlsx
+++ b/data/horarios-de-nivelacion-procesados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7259707-9292-43B3-95CB-D443EBE7F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA733A2F-AC32-41B8-B758-5B609CAC41FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="163">
   <si>
     <t>ciclo</t>
   </si>
@@ -411,13 +411,127 @@
   </si>
   <si>
     <t>GERARDO MANUEL</t>
+  </si>
+  <si>
+    <t>113443</t>
+  </si>
+  <si>
+    <t>113450</t>
+  </si>
+  <si>
+    <t>111443</t>
+  </si>
+  <si>
+    <t>111450</t>
+  </si>
+  <si>
+    <t>112443</t>
+  </si>
+  <si>
+    <t>112450</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS DE FINANZAS</t>
+  </si>
+  <si>
+    <t>08628745</t>
+  </si>
+  <si>
+    <t>GARCÍA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>EMILIO GABRIEL</t>
+  </si>
+  <si>
+    <t>LUNES</t>
+  </si>
+  <si>
+    <t>114402</t>
+  </si>
+  <si>
+    <t>PFP</t>
+  </si>
+  <si>
+    <t>111647</t>
+  </si>
+  <si>
+    <t>DERECHO TRIBUTARIO II</t>
+  </si>
+  <si>
+    <t>23929930</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>HERMOSA</t>
+  </si>
+  <si>
+    <t>DANITZA</t>
+  </si>
+  <si>
+    <t>111782</t>
+  </si>
+  <si>
+    <t>112741</t>
+  </si>
+  <si>
+    <t>113741</t>
+  </si>
+  <si>
+    <t>INFORMACION FINANCIERA</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN FINANCIERA</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>25406615</t>
+  </si>
+  <si>
+    <t>LOLI</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>112046</t>
+  </si>
+  <si>
+    <t>TRIBUTACION INTERNACIONAL II</t>
+  </si>
+  <si>
+    <t>23937445</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>ARREDONDO</t>
+  </si>
+  <si>
+    <t>NANCY</t>
+  </si>
+  <si>
+    <t>19:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +539,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +601,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -494,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -513,6 +651,12 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,8 +826,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q34" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:Q34" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q47" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:Q47" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{0A177087-4C15-4674-A4A9-7D9BD880913A}" name="ciclo" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{8DF6EEB5-31DE-43FB-8CC5-CF192B52A0D0}" name="escuela" dataDxfId="15"/>
@@ -1024,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1746F96C-94FA-48F7-B6FA-3EEFCDB601C7}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,7 +2918,7 @@
         <v>57</v>
       </c>
       <c r="N33" s="14" t="b">
-        <f t="shared" ref="N33:N34" si="11">NOT(ISBLANK(O33))</f>
+        <f t="shared" ref="N33:N41" si="11">NOT(ISBLANK(O33))</f>
         <v>1</v>
       </c>
       <c r="O33" s="14" t="s">
@@ -2835,7 +2979,680 @@
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
     </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>4</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="18" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>4</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="18" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>4</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="18" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>4</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="18" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>4</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="18" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>4</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="18" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>4</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="18" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>4</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="20" t="b">
+        <f t="shared" ref="N42:N43" si="12">NOT(ISBLANK(O42))</f>
+        <v>1</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>6</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="22" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="22"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>7</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" s="8" t="b">
+        <f t="shared" ref="N44:N47" si="13">NOT(ISBLANK(O44))</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>7</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="8" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>7</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="8" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N47" s="2" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/horarios-de-nivelacion-procesados.xlsx
+++ b/data/horarios-de-nivelacion-procesados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA733A2F-AC32-41B8-B758-5B609CAC41FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B103E84D-9F49-49F1-9410-922207C681B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="197">
   <si>
     <t>ciclo</t>
   </si>
@@ -525,6 +525,108 @@
   </si>
   <si>
     <t>19:15</t>
+  </si>
+  <si>
+    <t>ANALISIS E INTERPRETACION DE INFORMACIÓN FINANCIERA</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>SÁBADO</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>FINANZAS CORPORATIVAS</t>
+  </si>
+  <si>
+    <t>111783</t>
+  </si>
+  <si>
+    <t>112742</t>
+  </si>
+  <si>
+    <t>113742</t>
+  </si>
+  <si>
+    <t>08701208</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>MATEMÁTICA II</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>09367374</t>
+  </si>
+  <si>
+    <t>TIPE</t>
+  </si>
+  <si>
+    <t>TORVISCO</t>
+  </si>
+  <si>
+    <t>RICHARD</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>111246</t>
+  </si>
+  <si>
+    <t>112246</t>
+  </si>
+  <si>
+    <t>113246</t>
+  </si>
+  <si>
+    <t>114205</t>
+  </si>
+  <si>
+    <t>EGO205</t>
+  </si>
+  <si>
+    <t>112835</t>
+  </si>
+  <si>
+    <t>POLÍTICA FISCAL  Y TRIBUTARIA</t>
+  </si>
+  <si>
+    <t>43670786</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>CAYOTOPA</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>14:00</t>
   </si>
 </sst>
 </file>
@@ -546,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +721,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -632,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -657,6 +765,8 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q47" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:Q47" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q62" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:Q62" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{0A177087-4C15-4674-A4A9-7D9BD880913A}" name="ciclo" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{8DF6EEB5-31DE-43FB-8CC5-CF192B52A0D0}" name="escuela" dataDxfId="15"/>
@@ -854,7 +964,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Slipstream">
+    <a:clrScheme name="Paper">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -862,34 +972,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="212745"/>
+        <a:srgbClr val="444D26"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="B4DCFA"/>
+        <a:srgbClr val="FEFAC9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4E67C8"/>
+        <a:srgbClr val="A5B592"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="5ECCF3"/>
+        <a:srgbClr val="F3A447"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A7EA52"/>
+        <a:srgbClr val="E7BC29"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="5DCEAF"/>
+        <a:srgbClr val="D092A7"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF8021"/>
+        <a:srgbClr val="9C85C0"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F14124"/>
+        <a:srgbClr val="809EC2"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="56C7AA"/>
+        <a:srgbClr val="8E58B6"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="59A8D1"/>
+        <a:srgbClr val="7F6F6F"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1168,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1746F96C-94FA-48F7-B6FA-3EEFCDB601C7}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,6 +3761,791 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>6</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N48" s="4" t="b">
+        <f t="shared" ref="N48:N49" si="14">NOT(ISBLANK(O48))</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="4" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>8</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" s="4" t="b">
+        <f t="shared" ref="N50:N56" si="15">NOT(ISBLANK(O50))</f>
+        <v>1</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="4" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>7</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N52" s="18" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="18"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>7</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N53" s="18" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="P53" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q53" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>7</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="P54" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q54" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>2</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="N55" s="12" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="12"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>2</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56" s="12" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>2</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N57" s="12" t="b">
+        <f t="shared" ref="N57:N62" si="16">NOT(ISBLANK(O57))</f>
+        <v>1</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>2</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" s="12" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>2</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N59" s="12" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>2</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N60" s="12" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O60" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>2</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N61" s="12" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
+        <v>8</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="L62" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M62" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N62" s="24" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="24"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/horarios-de-nivelacion-procesados.xlsx
+++ b/data/horarios-de-nivelacion-procesados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B103E84D-9F49-49F1-9410-922207C681B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F264A13-7F88-444E-9C53-62FA01F3F9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="271">
   <si>
     <t>ciclo</t>
   </si>
@@ -627,6 +627,228 @@
   </si>
   <si>
     <t>14:00</t>
+  </si>
+  <si>
+    <t>111884</t>
+  </si>
+  <si>
+    <t>INVESTIGACION APLICADA PARA BACHILLER</t>
+  </si>
+  <si>
+    <t>ÁLEMAN</t>
+  </si>
+  <si>
+    <t>111084</t>
+  </si>
+  <si>
+    <t>GESTION DEL RIESGO FINANCIERO</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>10000214</t>
+  </si>
+  <si>
+    <t>RENGIFO</t>
+  </si>
+  <si>
+    <t>ALEGRÍA</t>
+  </si>
+  <si>
+    <t>ALBERTO JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>EGO209</t>
+  </si>
+  <si>
+    <t>INGLÉS II</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>08141796</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>BARBOZA</t>
+  </si>
+  <si>
+    <t>WILMER</t>
+  </si>
+  <si>
+    <t>111786</t>
+  </si>
+  <si>
+    <t>112745</t>
+  </si>
+  <si>
+    <t>113745</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD DE GESTION</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD DE GESTIÓN</t>
+  </si>
+  <si>
+    <t>09330913</t>
+  </si>
+  <si>
+    <t>ZAMORA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ULISES JOSÉ</t>
+  </si>
+  <si>
+    <t>111087</t>
+  </si>
+  <si>
+    <t>SISTEMAS Y TECNOLOGIAS DE INFORMACION</t>
+  </si>
+  <si>
+    <t>40714072</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ORDINOLA DE LOPEZ</t>
+  </si>
+  <si>
+    <t>KARLA MARGARITA</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111247    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112247    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">113247    </t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA CONTABILIDAD</t>
+  </si>
+  <si>
+    <t>43590201</t>
+  </si>
+  <si>
+    <t>ANGULO</t>
+  </si>
+  <si>
+    <t>POMIANO</t>
+  </si>
+  <si>
+    <t>WILLIAM PETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111784    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112743    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">113743    </t>
+  </si>
+  <si>
+    <t>METODOLOGIA DE LA INVESTIGACION CIENTIFICA</t>
+  </si>
+  <si>
+    <t>METODOLOGÍA DE LA INVESTIGACIÓN CIENTÍFICA</t>
+  </si>
+  <si>
+    <t>10880148</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>MALLQUI</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>111888</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD SECTORIAL</t>
+  </si>
+  <si>
+    <t>21527619</t>
+  </si>
+  <si>
+    <t>CHIPANA</t>
+  </si>
+  <si>
+    <t>TAGLE</t>
+  </si>
+  <si>
+    <t>DENNIS DANIEL</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112746    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">113746    </t>
+  </si>
+  <si>
+    <t>DERECHO TRIBUTARIO III</t>
+  </si>
+  <si>
+    <t>06719402</t>
+  </si>
+  <si>
+    <t>ANCAYA</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>EMILIO AGUSTÍN</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>111787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112842    </t>
+  </si>
+  <si>
+    <t>PROYECTOS DE INVERSION</t>
+  </si>
+  <si>
+    <t>45820854</t>
+  </si>
+  <si>
+    <t>OROSCO</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>ROGER FERNANDO</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>111883</t>
   </si>
 </sst>
 </file>
@@ -648,7 +870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,6 +949,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -740,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -767,6 +1001,10 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,8 +1174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q62" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:Q62" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q81" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:Q81" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{0A177087-4C15-4674-A4A9-7D9BD880913A}" name="ciclo" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{8DF6EEB5-31DE-43FB-8CC5-CF192B52A0D0}" name="escuela" dataDxfId="15"/>
@@ -1278,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1746F96C-94FA-48F7-B6FA-3EEFCDB601C7}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,11 +1640,11 @@
         <f t="shared" ref="N2:N4" si="0">NOT(ISBLANK(O2))</f>
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -1452,11 +1690,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1499,14 +1737,12 @@
         <v>41</v>
       </c>
       <c r="N4" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+        <f>NOT(ISBLANK(O4))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1552,14 +1788,14 @@
         <f>NOT(ISBLANK(O5))</f>
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="5">
         <f>E4</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="5">
         <f>F4</f>
         <v>403</v>
       </c>
@@ -1608,13 +1844,13 @@
         <f t="shared" ref="N6:N14" si="1">NOT(ISBLANK(O6))</f>
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
         <f t="shared" ref="Q6:Q9" si="2">F5</f>
         <v>403</v>
       </c>
@@ -1663,13 +1899,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
         <f t="shared" si="2"/>
         <v>403</v>
       </c>
@@ -1718,13 +1954,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="shared" si="2"/>
         <v>403</v>
       </c>
@@ -1773,13 +2009,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
         <v>403</v>
       </c>
@@ -1826,11 +2062,9 @@
       </c>
       <c r="N10" s="10" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
@@ -2204,11 +2438,9 @@
       </c>
       <c r="N17" s="8" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O17" s="8"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
@@ -2362,11 +2594,9 @@
       </c>
       <c r="N20" s="4" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O20" s="4"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
@@ -2521,11 +2751,9 @@
       </c>
       <c r="N23" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O23" s="12"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
@@ -2571,11 +2799,9 @@
       </c>
       <c r="N24" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O24" s="12"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
@@ -2621,11 +2847,9 @@
       </c>
       <c r="N25" s="4" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O25" s="4"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
@@ -2671,11 +2895,9 @@
       </c>
       <c r="N26" s="4" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O26" s="4"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
@@ -2721,11 +2943,9 @@
       </c>
       <c r="N27" s="10" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
@@ -4269,7 +4489,7 @@
         <v>57</v>
       </c>
       <c r="N57" s="12" t="b">
-        <f t="shared" ref="N57:N62" si="16">NOT(ISBLANK(O57))</f>
+        <f t="shared" ref="N57:N75" si="16">NOT(ISBLANK(O57))</f>
         <v>1</v>
       </c>
       <c r="O57" s="12" t="s">
@@ -4545,6 +4765,972 @@
       <c r="O62" s="24"/>
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="26">
+        <v>8</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N63" s="26" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="26"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
+        <v>10</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L64" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M64" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N64" s="24" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="24"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
+        <v>2</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M65" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N65" s="20" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="20"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>7</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N66" s="28" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="28"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
+        <v>7</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N67" s="28" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="28">
+        <v>7</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N68" s="28" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>10</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="N69" s="14" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="14"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
+        <v>2</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L70" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N70" s="22" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="22"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
+        <v>2</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J71" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N71" s="22" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="P71" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q71" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="22">
+        <v>2</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J72" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L72" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N72" s="22" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O72" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="P72" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q72" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>7</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N73" s="16" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="16"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>7</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M74" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N74" s="16" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="P74" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q74" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>7</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N75" s="16" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="P75" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q75" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="26">
+        <v>8</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N76" s="26" t="b">
+        <f t="shared" ref="N76:N81" si="17">NOT(ISBLANK(O76))</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="26"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>7</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="N77" s="12" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="12"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>7</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N78" s="12" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O78" s="12">
+        <v>111787</v>
+      </c>
+      <c r="P78" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q78" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>7</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N79" s="12" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O79" s="12">
+        <v>111787</v>
+      </c>
+      <c r="P79" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q79" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>8</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N80" s="16" t="b">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="16"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>8</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N81" s="16" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O81" s="16">
+        <v>111883</v>
+      </c>
+      <c r="P81" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q81" s="17" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/horarios-de-nivelacion-procesados.xlsx
+++ b/data/horarios-de-nivelacion-procesados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F264A13-7F88-444E-9C53-62FA01F3F9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C9F877-9E09-4C0B-A806-BA2A0F2B0748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="271">
   <si>
     <t>ciclo</t>
   </si>
@@ -1029,6 +1029,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1518,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1746F96C-94FA-48F7-B6FA-3EEFCDB601C7}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,12 +1638,10 @@
         <v>41</v>
       </c>
       <c r="N2" s="6" t="b">
-        <f t="shared" ref="N2:N4" si="0">NOT(ISBLANK(O2))</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>109</v>
-      </c>
+        <f>NOT(ISBLANK(O2))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
@@ -1687,12 +1686,10 @@
         <v>40</v>
       </c>
       <c r="N3" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>109</v>
-      </c>
+        <f t="shared" ref="N2:N3" si="0">NOT(ISBLANK(O3))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
@@ -1740,7 +1737,7 @@
         <f>NOT(ISBLANK(O4))</f>
         <v>0</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
@@ -2064,7 +2061,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="10"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
@@ -2280,7 +2277,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>109</v>
       </c>
       <c r="P14" s="3"/>
@@ -2440,7 +2437,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O17" s="8"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
@@ -2596,7 +2593,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
@@ -2699,7 +2696,7 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="5" t="s">
         <v>68</v>
       </c>
       <c r="P22" s="5">
@@ -2753,7 +2750,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O23" s="12"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
@@ -2801,7 +2798,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O24" s="12"/>
+      <c r="O24" s="13"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
@@ -2849,7 +2846,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
@@ -2897,7 +2894,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
@@ -2945,7 +2942,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O27" s="10"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
@@ -3047,7 +3044,7 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="11" t="s">
         <v>96</v>
       </c>
       <c r="P29" s="11" t="s">
@@ -3101,7 +3098,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O30" s="14"/>
+      <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
@@ -3149,7 +3146,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O31" s="14"/>
+      <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
@@ -3251,7 +3248,7 @@
         <f t="shared" ref="N33:N41" si="11">NOT(ISBLANK(O33))</f>
         <v>1</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="15" t="s">
         <v>110</v>
       </c>
       <c r="P33" s="15" t="s">
@@ -3305,7 +3302,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O34" s="16"/>
+      <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
     </row>
@@ -3353,7 +3350,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O35" s="18"/>
+      <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
     </row>
@@ -3401,7 +3398,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O36" s="18"/>
+      <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
     </row>
@@ -3503,7 +3500,7 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="19" t="s">
         <v>127</v>
       </c>
       <c r="P38" s="19" t="s">
@@ -3557,7 +3554,7 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="O39" s="19" t="s">
         <v>127</v>
       </c>
       <c r="P39" s="19" t="s">
@@ -3611,7 +3608,7 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O40" s="18" t="s">
+      <c r="O40" s="19" t="s">
         <v>127</v>
       </c>
       <c r="P40" s="19" t="s">
@@ -3665,7 +3662,7 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O41" s="18" t="s">
+      <c r="O41" s="19" t="s">
         <v>127</v>
       </c>
       <c r="P41" s="19" t="s">
@@ -3719,7 +3716,7 @@
         <f t="shared" ref="N42:N43" si="12">NOT(ISBLANK(O42))</f>
         <v>1</v>
       </c>
-      <c r="O42" s="20" t="s">
+      <c r="O42" s="21" t="s">
         <v>127</v>
       </c>
       <c r="P42" s="21" t="s">
@@ -3773,7 +3770,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O43" s="22"/>
+      <c r="O43" s="23"/>
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
     </row>
@@ -3821,7 +3818,7 @@
         <f t="shared" ref="N44:N47" si="13">NOT(ISBLANK(O44))</f>
         <v>0</v>
       </c>
-      <c r="O44" s="8"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
     </row>
@@ -3923,7 +3920,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="9" t="s">
         <v>146</v>
       </c>
       <c r="P46" s="9" t="s">
@@ -3977,7 +3974,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
@@ -4025,7 +4022,7 @@
         <f t="shared" ref="N48:N49" si="14">NOT(ISBLANK(O48))</f>
         <v>0</v>
       </c>
-      <c r="O48" s="4"/>
+      <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
@@ -4073,7 +4070,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="O49" s="5" t="s">
         <v>105</v>
       </c>
       <c r="P49" s="5" t="s">
@@ -4127,7 +4124,7 @@
         <f t="shared" ref="N50:N56" si="15">NOT(ISBLANK(O50))</f>
         <v>1</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="O50" s="5" t="s">
         <v>105</v>
       </c>
       <c r="P50" s="5" t="s">
@@ -4181,7 +4178,7 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="O51" s="5" t="s">
         <v>105</v>
       </c>
       <c r="P51" s="5" t="s">
@@ -4235,7 +4232,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O52" s="18"/>
+      <c r="O52" s="19"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
     </row>
@@ -4283,7 +4280,7 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O53" s="18" t="s">
+      <c r="O53" s="19" t="s">
         <v>169</v>
       </c>
       <c r="P53" s="19" t="s">
@@ -4336,7 +4333,7 @@
       <c r="N54" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="O54" s="18" t="s">
+      <c r="O54" s="19" t="s">
         <v>169</v>
       </c>
       <c r="P54" s="19" t="s">
@@ -4390,7 +4387,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O55" s="12"/>
+      <c r="O55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
     </row>
@@ -4438,7 +4435,7 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O56" s="12" t="s">
+      <c r="O56" s="13" t="s">
         <v>185</v>
       </c>
       <c r="P56" s="13" t="s">
@@ -4492,7 +4489,7 @@
         <f t="shared" ref="N57:N75" si="16">NOT(ISBLANK(O57))</f>
         <v>1</v>
       </c>
-      <c r="O57" s="12" t="s">
+      <c r="O57" s="13" t="s">
         <v>185</v>
       </c>
       <c r="P57" s="13" t="s">
@@ -4546,7 +4543,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="O58" s="12" t="s">
+      <c r="O58" s="13" t="s">
         <v>185</v>
       </c>
       <c r="P58" s="13" t="s">
@@ -4600,7 +4597,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="O59" s="12" t="s">
+      <c r="O59" s="13" t="s">
         <v>185</v>
       </c>
       <c r="P59" s="13" t="s">
@@ -4654,7 +4651,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="O60" s="12" t="s">
+      <c r="O60" s="13" t="s">
         <v>185</v>
       </c>
       <c r="P60" s="13" t="s">
@@ -4708,7 +4705,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="O61" s="12" t="s">
+      <c r="O61" s="13" t="s">
         <v>185</v>
       </c>
       <c r="P61" s="13" t="s">
@@ -4762,7 +4759,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O62" s="24"/>
+      <c r="O62" s="25"/>
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
     </row>
@@ -4810,7 +4807,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O63" s="26"/>
+      <c r="O63" s="27"/>
       <c r="P63" s="27"/>
       <c r="Q63" s="27"/>
     </row>
@@ -4858,7 +4855,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O64" s="24"/>
+      <c r="O64" s="25"/>
       <c r="P64" s="25"/>
       <c r="Q64" s="25"/>
     </row>
@@ -4906,7 +4903,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O65" s="20"/>
+      <c r="O65" s="21"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
     </row>
@@ -4954,7 +4951,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O66" s="28"/>
+      <c r="O66" s="29"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
     </row>
@@ -5056,7 +5053,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="O68" s="28" t="s">
+      <c r="O68" s="29" t="s">
         <v>214</v>
       </c>
       <c r="P68" s="29" t="s">
@@ -5110,7 +5107,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O69" s="14"/>
+      <c r="O69" s="15"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
@@ -5158,7 +5155,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O70" s="22"/>
+      <c r="O70" s="23"/>
       <c r="P70" s="23"/>
       <c r="Q70" s="23"/>
     </row>
@@ -5260,7 +5257,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="O72" s="22" t="s">
+      <c r="O72" s="23" t="s">
         <v>230</v>
       </c>
       <c r="P72" s="23" t="s">
@@ -5314,7 +5311,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O73" s="16"/>
+      <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
     </row>
@@ -5470,7 +5467,7 @@
         <f t="shared" ref="N76:N81" si="17">NOT(ISBLANK(O76))</f>
         <v>0</v>
       </c>
-      <c r="O76" s="26"/>
+      <c r="O76" s="27"/>
       <c r="P76" s="27"/>
       <c r="Q76" s="27"/>
     </row>
@@ -5518,7 +5515,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O77" s="12"/>
+      <c r="O77" s="13"/>
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
     </row>
@@ -5566,7 +5563,7 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="O78" s="12">
+      <c r="O78" s="13">
         <v>111787</v>
       </c>
       <c r="P78" s="13" t="s">
@@ -5620,7 +5617,7 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="O79" s="12">
+      <c r="O79" s="13">
         <v>111787</v>
       </c>
       <c r="P79" s="13" t="s">
@@ -5674,7 +5671,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O80" s="16"/>
+      <c r="O80" s="17"/>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
     </row>
@@ -5722,7 +5719,7 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="O81" s="16">
+      <c r="O81" s="17">
         <v>111883</v>
       </c>
       <c r="P81" s="17" t="s">
